--- a/Streamlit/data/SaveFile.xlsx
+++ b/Streamlit/data/SaveFile.xlsx
@@ -514,22 +514,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>CGSC (Botijos)</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I2" t="b">
@@ -537,19 +537,19 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Some Clouds</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>No Wind</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L2" s="2" t="n">
-        <v>45540</v>
+        <v>45562</v>
       </c>
       <c r="M2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -563,7 +563,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -687,100 +687,6 @@
         <v>300</v>
       </c>
       <c r="O2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
-      </c>
-      <c r="G3" t="n">
-        <v>4</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N3" t="n">
-        <v>300</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3</v>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G4" t="n">
-        <v>4</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2</v>
-      </c>
-      <c r="N4" t="n">
-        <v>300</v>
-      </c>
-      <c r="O4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -795,7 +701,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -922,7 +828,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M2" t="b">
         <v>0</v>
@@ -933,311 +839,6 @@
         </is>
       </c>
       <c r="O2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1-0</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>300</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Driver</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Off a Tee</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Straight</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Flat</t>
-        </is>
-      </c>
-      <c r="J3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Straight</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>100</v>
-      </c>
-      <c r="M3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Not a Putter</t>
-        </is>
-      </c>
-      <c r="O3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0-1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Driver</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Fairway</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Straight</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Flat</t>
-        </is>
-      </c>
-      <c r="J4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Straight</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>100</v>
-      </c>
-      <c r="M4" t="b">
-        <v>0</v>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Not a Putter</t>
-        </is>
-      </c>
-      <c r="O4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0-2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" t="n">
-        <v>100</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Putter</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Putt</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Flat</t>
-        </is>
-      </c>
-      <c r="J5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Putt</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>100</v>
-      </c>
-      <c r="M5" t="b">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>Not a Putter</t>
-        </is>
-      </c>
-      <c r="O5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0-3</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4</v>
-      </c>
-      <c r="E6" t="n">
-        <v>100</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Putter</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Putt</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Flat</t>
-        </is>
-      </c>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Putt</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="b">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Not a Putter</t>
-        </is>
-      </c>
-      <c r="O6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2-0</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>300</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Driver</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Off a Tee</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Straight</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Flat</t>
-        </is>
-      </c>
-      <c r="J7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Straight</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Not a Putter</t>
-        </is>
-      </c>
-      <c r="O7" t="b">
         <v>0</v>
       </c>
     </row>
